--- a/file/price.xlsx
+++ b/file/price.xlsx
@@ -1,42 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr_Diachenko\IdeaProjects\price-checker-web\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8250C91-CA4D-4FA3-BAC9-03D93122A261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CAC7952-0549-46DF-A710-278B9DE16208}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New sheet" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="26">
   <si>
     <t>https://makeup.com.ua/product/672393/#/option/1618475/</t>
   </si>
   <si>
-    <t>https://makeup.com.ua/product/707101/#/option/1667911_3/</t>
+    <t>595</t>
   </si>
   <si>
     <t>sssssssssss</t>
@@ -69,6 +50,12 @@
     <t>iiiiiiiii</t>
   </si>
   <si>
+    <t>https://makeup.com.ua/product/707101/#/option/1667911_3/</t>
+  </si>
+  <si>
+    <t>Нет в наличии</t>
+  </si>
+  <si>
     <t>lllllllllllllll</t>
   </si>
   <si>
@@ -93,25 +80,27 @@
     <t>…..............</t>
   </si>
   <si>
+    <t>5.55556E+12</t>
+  </si>
+  <si>
+    <t>4.44444E+11</t>
+  </si>
+  <si>
     <t>.</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,7 +111,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -134,343 +123,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5572066F-C900-4C6B-B0AC-BFA64FF1C7A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.77734375" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.31640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.46484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.18359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="16.00390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="24.1171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.08984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.62890625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="5.73828125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="15.5" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.90625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="12.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -503,54 +192,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>5555555555555</v>
-      </c>
-      <c r="L2">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -582,50 +297,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>5555555555555</v>
-      </c>
-      <c r="L5">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" t="s">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -657,50 +402,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8">
-        <v>5555555555555</v>
-      </c>
-      <c r="L8">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
       <c r="H9" t="s">
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -732,50 +507,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11">
-        <v>5555555555555</v>
-      </c>
-      <c r="L11">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
       <c r="H12" t="s">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -807,50 +612,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14">
-        <v>5555555555555</v>
-      </c>
-      <c r="L14">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
       <c r="H15" t="s">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -882,50 +717,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17">
-        <v>5555555555555</v>
-      </c>
-      <c r="L17">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
       <c r="H18" t="s">
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -957,50 +822,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20">
-        <v>5555555555555</v>
-      </c>
-      <c r="L20">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
       <c r="H21" t="s">
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -1032,41 +927,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23">
-        <v>5555555555555</v>
-      </c>
-      <c r="L23">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -1098,50 +1003,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25">
-        <v>5555555555555</v>
-      </c>
-      <c r="L25">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
       <c r="H26" t="s">
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -1173,50 +1108,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28">
-        <v>5555555555555</v>
-      </c>
-      <c r="L28">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
       <c r="H29" t="s">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -1248,50 +1213,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31">
-        <v>5555555555555</v>
-      </c>
-      <c r="L31">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
       <c r="H32" t="s">
         <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -1323,50 +1318,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34">
-        <v>5555555555555</v>
-      </c>
-      <c r="L34">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
       <c r="H35" t="s">
         <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -1398,50 +1423,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37">
-        <v>5555555555555</v>
-      </c>
-      <c r="L37">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
       <c r="H38" t="s">
         <v>6</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -1473,50 +1528,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40">
-        <v>5555555555555</v>
-      </c>
-      <c r="L40">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
       <c r="H41" t="s">
         <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -1548,50 +1633,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43">
-        <v>5555555555555</v>
-      </c>
-      <c r="L43">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
       <c r="H44" t="s">
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -1623,41 +1738,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46">
-        <v>5555555555555</v>
-      </c>
-      <c r="L46">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K46" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -1689,50 +1814,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48">
-        <v>5555555555555</v>
-      </c>
-      <c r="L48">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
       <c r="H49" t="s">
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -1764,50 +1919,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51">
-        <v>5555555555555</v>
-      </c>
-      <c r="L51">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
       <c r="H52" t="s">
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -1839,50 +2024,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54">
-        <v>5555555555555</v>
-      </c>
-      <c r="L54">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
       <c r="H55" t="s">
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -1914,50 +2129,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
-      </c>
-      <c r="K57">
-        <v>5555555555555</v>
-      </c>
-      <c r="L57">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
       <c r="H58" t="s">
         <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -1989,50 +2234,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60">
-        <v>5555555555555</v>
-      </c>
-      <c r="L60">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
       <c r="H61" t="s">
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
@@ -2064,50 +2339,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
-      </c>
-      <c r="K63">
-        <v>5555555555555</v>
-      </c>
-      <c r="L63">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
       <c r="H64" t="s">
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
@@ -2139,50 +2444,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K66">
-        <v>5555555555555</v>
-      </c>
-      <c r="L66">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K66" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
       <c r="H67" t="s">
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
@@ -2214,41 +2549,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
-      </c>
-      <c r="K69">
-        <v>5555555555555</v>
-      </c>
-      <c r="L69">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
@@ -2280,50 +2625,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71">
-        <v>5555555555555</v>
-      </c>
-      <c r="L71">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
       <c r="H72" t="s">
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
@@ -2355,50 +2730,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
-      </c>
-      <c r="K74">
-        <v>5555555555555</v>
-      </c>
-      <c r="L74">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
       <c r="H75" t="s">
         <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
       <c r="C76" t="s">
         <v>2</v>
       </c>
@@ -2430,50 +2835,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K77">
-        <v>5555555555555</v>
-      </c>
-      <c r="L77">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
       <c r="H78" t="s">
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -2505,50 +2940,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
-      </c>
-      <c r="K80">
-        <v>5555555555555</v>
-      </c>
-      <c r="L80">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
       <c r="H81" t="s">
         <v>6</v>
       </c>
       <c r="I81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
@@ -2580,50 +3045,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
-      </c>
-      <c r="K83">
-        <v>5555555555555</v>
-      </c>
-      <c r="L83">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K83" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>25</v>
+      </c>
       <c r="H84" t="s">
         <v>6</v>
       </c>
       <c r="I84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
@@ -2655,50 +3150,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I86" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K86">
-        <v>5555555555555</v>
-      </c>
-      <c r="L86">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>25</v>
+      </c>
       <c r="H87" t="s">
         <v>6</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -2730,50 +3255,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
-      </c>
-      <c r="K89">
-        <v>5555555555555</v>
-      </c>
-      <c r="L89">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
       <c r="H90" t="s">
         <v>6</v>
       </c>
       <c r="I90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
@@ -2805,45 +3360,45 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J92" t="s">
-        <v>19</v>
-      </c>
-      <c r="K92">
-        <v>5555555555555</v>
-      </c>
-      <c r="L92">
-        <v>444444444444</v>
+        <v>21</v>
+      </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" location="/option/1618475/" display="https://makeup.com.ua/product/672393/ - /option/1618475/" xr:uid="{D639A063-FDDB-481F-8333-4BEBA15D2438}"/>
-    <hyperlink ref="A2" r:id="rId2" location="/option/1667911_3/" display="https://makeup.com.ua/product/707101/ - /option/1667911_3/" xr:uid="{A3B6CE87-086D-41B0-9847-9E77B2092F5D}"/>
-    <hyperlink ref="A3" r:id="rId3" location="/option/1631929/" display="https://makeup.com.ua/product/682209/ - /option/1631929/" xr:uid="{7682EC7F-1291-47F7-BD3C-03488C58B3F7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>